--- a/src/test/resources/config/postApi.xlsx
+++ b/src/test/resources/config/postApi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanthchigarer\Documents\Workspace\RippleStreet_API\RippleStreet_API\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D291EF-3B6E-4F44-9814-516551685E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE30E334-B1AA-48FF-AD53-44314F001C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BCF75477-2857-48AB-AF77-FA4524F1588A}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="9760" xr2:uid="{BCF75477-2857-48AB-AF77-FA4524F1588A}"/>
   </bookViews>
   <sheets>
     <sheet name="postApi" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="173">
   <si>
     <t>Api_name</t>
   </si>
   <si>
     <t>Controller_Name</t>
-  </si>
-  <si>
-    <t>Expected_Output</t>
   </si>
   <si>
     <t>Actual_Output</t>
@@ -61,17 +58,11 @@
 }</t>
   </si>
   <si>
-    <t>{"timestamp":1690263760457,"status":500,"error":"Internal Server Error","path":"/event/events/createEventSubscriptions"}</t>
-  </si>
-  <si>
     <t>{
   "eventIds": [
     2128
   ]
 }</t>
-  </si>
-  <si>
-    <t>[{"id":2128,"sponsorId":587,"slug":"automationcbevent","name":"Automation CB Event","description":"&lt;p&gt;&lt;span style=\"color:#ff0000;\"&gt;Insert Product Overview&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"color:#000000;\"&gt;&lt;strong&gt;You must be 21 or older to host this event. &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;strong&gt;&lt;strong&gt;This event is only open to residents of the contiguous US. &lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;\n&lt;p&gt;&lt;strong&gt;If you're selected as a Chatterbox, you'll get a great Chat Pack:&lt;/strong&gt;&lt;/p&gt;\n&lt;ul&gt;&lt;li&gt;Gift card&lt;/li&gt;\n&lt;li&gt;LIST 1&lt;/li&gt;\n&lt;li&gt;LIST 1&lt;/li&gt;\n&lt;li&gt;LIST 1&lt;/li&gt;\n&lt;/ul&gt;&lt;p&gt;Apply now and if selected, you'll receive a Chat Pack delivered right to your doorstep. Invite a friend over, who is at least 21 years old, to try  Automation Product  with you. You don't have to throw a party, but you'll want to celebrate when it arrives! After you try  Automation Product , chat about &lt;span style=\"color:#ff0000;\"&gt;[CUSTOMIZE PER BRAND]&lt;/span&gt;, share your opinions and post a review on the site. That's it!&lt;/p&gt;\n&lt;p&gt;Get the chatter started! Apply now.&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"color:#ff0000;\"&gt;Insert Legal Disclaimer&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"font-size:x-small;\"&gt;Insert Client Responsiblity messaging and copyright line here&lt;/span&gt;&lt;/p&gt;\n&lt;p class=\"headerul\"&gt;&lt;span style=\"font-size:x-small;\"&gt;You must be 21 or older to apply to be a Chatterbox for this campaign. State laws do not allow us to provide alcoholic beverages to Chatterbox participants. &lt;/span&gt;&lt;/p&gt;\n&lt;p class=\"headerul\"&gt;&lt;span style=\"font-size:x-small;\"&gt;Be sure to catch a safe ride home — no drinking and driving. Please Drink Responsibly.&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"font-size:x-small;\"&gt;Please only post photos and videos of people 21 years of age or older and all persons must have given their permission. Photos must not defame or invade the publicity or privacy rights of any person, living or deceased, or otherwise infringe upon any person’s personal or proprietary rights. Photos must not: Describe individuals younger than 21 years of age; Contain material that violates or infringes another's rights, including, but not limited to, copyright, patent, trade name/trademark, and/or rights of privacy or publicity, slander, libel, or portrayal in a false light; Contain content depicting violence, nudity, profanity, illegal, or sexually explicit activity, or any content that is inappropriate, indecent, obscene, hateful, tortious, defamatory, slanderous or libelous; Contain content that promotes bigotry, racism, hatred or harm against any group or individual or promotes discrimination based on race, gender, religion, nationality, disability, sexual orientation or age; Contain material that is unlawful, in violation of, or contrary to, any laws or regulations; Contain any deleterious material, such as, but not limited to, virus, bugs, or tracking, or other embedded material or programs; and Contain any excessive consumption of wine or individuals who appear intoxicated.&lt;/span&gt;&lt;/p&gt;","community":{"id":587,"name":"Automation Sponsor"},"acceptingApplications":true,"applicationStarts":"2023-06-01 11:42:00","applicationEnds":"2024-04-30 23:59:00","heroPlayList":{"id":9962,"autoPlay":true,"mediaUrl":null,"assets":[{"assetId":null,"basename":"images.jpg","mimeType":"image/jpeg","type":"Image","url":null,"thumbnailUrl":null,"hlsPlaylistUrl":"https://stg-media.ripplestreet.com/basset/cd2c5bebea8f8b06021b16788dfbf2ee/original/images.jpg","mp4Url":null,"webmUrl":null,"description":null},{"assetId":null,"basename":"Automation-in-workplace-today-1.jpg","mimeType":"image/jpeg","type":"Image","url":null,"thumbnailUrl":null,"hlsPlaylistUrl":"https://stg-media.ripplestreet.com/basset/07be0f7d65e3e7213847779cccfb3c51/original/Automation-in-workplace-today-1.jpg","mp4Url":null,"webmUrl":null,"description":null},{"assetId":null,"basename":"Automation-in-workplace-today-1.jpg","mimeType":"image/jpeg","type":"Image","url":null,"thumbnailUrl":null,"hlsPlaylistUrl":"https://stg-media.ripplestreet.com/basset/07be0f7d65e3e7213847779cccfb3c51/original/Automation-in-workplace-today-1.jpg","mp4Url":null,"webmUrl":null,"description":null}]},"productResponses":[{"id":6880,"name":"Auto Product 1"}]}]</t>
   </si>
   <si>
     <t>EventControllerPostApi</t>
@@ -112,19 +103,7 @@
     <t>{"6790051":{"feedId":6790051,"liked":true,"flagged":true,"flaggedDate":"2023-06-15 02:00:38.0","flaggedReason":"Test"}}</t>
   </si>
   <si>
-    <t>{
-  "comment": "Test Automation reporting",
-  "feedType": "Discussion",
-  "id": 4988584,
-  "ipAddress": "",
-  "personId": 9593128
-}</t>
-  </si>
-  <si>
     <t>reportFeedById</t>
-  </si>
-  <si>
-    <t>{"timestamp":1690265492368,"status":500,"error":"Internal Server Error","path":"/event/events-feed/reportFeed"}</t>
   </si>
   <si>
     <t>{
@@ -159,16 +138,10 @@
     <t>{"status":"BAD_REQUEST","message":"You can only submit one application per event","debugMessage":"You can only submit one application per event"}</t>
   </si>
   <si>
-    <t>s3://audience-rs/dev/2128-Host-2023-07-25 02:40:45.csv</t>
-  </si>
-  <si>
     <t>AudienecControllerPostApi</t>
   </si>
   <si>
     <t>exportUserList</t>
-  </si>
-  <si>
-    <t>s3://audience-rs/dev/2128-Host-2023-07-25 02:41:45.csv</t>
   </si>
   <si>
     <t>{
@@ -185,9 +158,6 @@
   </si>
   <si>
     <t>{"successPids":[9593101],"failedPids":[]}</t>
-  </si>
-  <si>
-    <t>465</t>
   </si>
   <si>
     <t>audienceAddPromoteFileProcess</t>
@@ -218,49 +188,972 @@
 }</t>
   </si>
   <si>
-    <t>bgjacgifchchg-7879cff8-75b9-4084-b7d0-e5f368aad181</t>
-  </si>
-  <si>
-    <t>bgjacgihdcjgc-40e1e43c-e7ad-4efa-bbfb-e983c9ec331e</t>
-  </si>
-  <si>
-    <t>bgjacgihfffgj-fcc094c1-b627-4d93-83fd-c35b2b2cb88f</t>
-  </si>
-  <si>
-    <t>bgjacgihfgegf-fdae0898-192c-41b9-84df-b7375c9e6a09</t>
-  </si>
-  <si>
-    <t>bgjacgihhghdc-281c4f7a-ef34-4fa4-8794-a00d9b72307f</t>
-  </si>
-  <si>
-    <t>bgjacgihhhibc-c2aa66f2-4816-4a39-9304-a2b9ec7ffca2</t>
-  </si>
-  <si>
-    <t>s3://audience-rs/dev/2128-Host-2023-07-25 03:15:45.csv</t>
-  </si>
-  <si>
-    <t>s3://audience-rs/dev/2128-Host-2023-07-25 03:16:06.csv</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>bgjacgjjacgfb-638455f1-2405-4d61-a8af-8b36fa10a574</t>
-  </si>
-  <si>
-    <t>bgjacgjjfahhg-29cca3ef-5e5d-4e60-9e90-b40fb719d036</t>
-  </si>
-  <si>
-    <t>{"timestamp":1690270060830,"status":500,"error":"Internal Server Error","path":"/event/events/createEventSubscriptions"}</t>
-  </si>
-  <si>
-    <t>bgjachabjfbaf-ff531ecd-1580-4a7f-bdbc-6c5356b7a603</t>
-  </si>
-  <si>
-    <t>bgjachabjhbjf-e1de23c1-ae9a-467a-99af-1e9dc8516563</t>
-  </si>
-  <si>
-    <t>{"timestamp":1690270242877,"status":500,"error":"Internal Server Error","path":"/event/events-feed/reportFeed"}</t>
+    <t>{
+  "activityGroupId": "544195b7-0fb4-419a-9877-3ffcc2e766f3",
+  "activityId": "2bb391b9-11e6-4080-960f-296ab30f1d58",
+  "eventId": "1245",
+  "sponsorId": 505,
+  "userId": "9593242",
+  "tasks": [
+    {
+      "task": "PROFILE_INFO",
+      "taskId": "e65897bc-d49a-49b2-91e6-4e4692f6cbe2",
+      "validations": null,
+      "request": {
+        "person": {
+          "birthDate": "",
+          "firstName": "Lalitha",
+          "lastName": "CS",
+          "phoneNumber": "",
+          "email": ""
+        }
+      }
+    },
+    {
+      "task": "ADDRESS",
+      "taskId": "f5eb41d8-4232-4067-8f1d-da86d593fc7b",
+      "validations": null,
+      "request": {
+        "address": {
+          "addressAccuracy": 0,
+          "addressLat": 33.97341,
+          "addressLong": -118.24916,
+          "checkSum": "",
+          "city": "Los Angeles",
+          "cityAccuracy": 0,
+          "cityLat": 33.97341,
+          "cityLong": -118.24916,
+          "countryName": "UNITED STATES",
+          "id": 0,
+          "isBlacklisted": false,
+          "isGeocoded": true,
+          "isValid": false,
+          "postalAdditional": "",
+          "postalCode": "90001",
+          "stateOrProvince": "CA",
+          "street1": "",
+          "street2": "",
+          "timeZone": ""
+        },
+        "created": "2023-07-25T10:42:01.090Z",
+        "headshot": null,
+        "id": "9593242",
+        "modified": "2023-07-25T10:42:01.090Z",
+        "person": null
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>CommunityControllerPostApi</t>
+  </si>
+  <si>
+    <t>AdminUpdateUserProfile</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Person data should not be null","debugMessage":"Person data should not be null"}</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": 9593101
+  }
+]</t>
+  </si>
+  <si>
+    <t>GetAlluserByids</t>
+  </si>
+  <si>
+    <t>[
+  9593101
+]</t>
+  </si>
+  <si>
+    <t>GetPeopleHeadshotInfobylistOfPersionIds</t>
+  </si>
+  <si>
+    <t>[{"id":9593101,"name":"Lalitha C","headShot":{"id":3504788,"baseName":"1689332186448_MicrosoftTeams-image-279.png","size":139585,"type":"Image","mimeType":"image/png","url":"https://stg-media.ripplestreet.com/basset/461077de08d1cab2be6fd3a916df7a21/original/1689332186448_MicrosoftTeams-image-279.png"}}]</t>
+  </si>
+  <si>
+    <t>{
+  "eventId": 2128,
+  "page": 1,
+  "size": 10,
+  "userId": 9593101
+}</t>
+  </si>
+  <si>
+    <t>{"emailAuditList":null,"count":null}</t>
+  </si>
+  <si>
+    <t>GettingDetailOfUserCommunicationsByPersonIdAndEventId(</t>
+  </si>
+  <si>
+    <t>{
+  "activityGroupId": "544195b7-0fb4-419a-9877-3ffcc2e766f3",
+  "activityId": "2bb391b9-11e6-4080-960f-296ab30f1d58",
+  "eventId": "1245",
+  "sponsorId": 505,
+  "userId": "9593242",
+  "taskId": "e65897bc-d49a-49b2-91e6-4e4692f6cbe2",
+  "address": {
+    "addressAccuracy": 0,
+    "addressLat": 33.97341,
+    "addressLong": -118.24916,
+    "checkSum": "",
+    "city": "Los Angeles",
+    "cityAccuracy": 0,
+    "cityLat": 33.97341,
+    "cityLong": -118.24916,
+    "countryName": "UNITED STATES",
+    "id": 0,
+    "isBlacklisted": false,
+    "isGeocoded": true,
+    "isValid": false,
+    "postalAdditional": "",
+    "postalCode": "90001",
+    "stateOrProvince": "CA",
+    "street1": "",
+    "street2": "",
+    "timeZone": ""
+  },
+  "currentDate": "2023-07-25T10:42:01.090Z",
+  "history": {
+    "applications": 0,
+    "chatterBoxTrials": 0,
+    "houseParty": 0,
+    "memberSince": "string"
+  },
+  "person": {
+    "birthDate": "",
+    "firstName": "Lalitha",
+    "lastName": "CS",
+    "phoneNumber": "",
+    "email": ""
+  }
+}</t>
+  </si>
+  <si>
+    <t>saveUserProfile</t>
+  </si>
+  <si>
+    <t>{
+  "personIds": [
+    9593101
+  ]
+}</t>
+  </si>
+  <si>
+    <t>getAlluserByIds</t>
+  </si>
+  <si>
+    <t>{
+  "enrollmentName": "Loyalty",
+  "personId": 9593101
+}</t>
+  </si>
+  <si>
+    <t>RegitserUserEnrollment</t>
+  </si>
+  <si>
+    <t>EbrollmentControllerpostApi</t>
+  </si>
+  <si>
+    <t>{
+  "active": true,
+  "name": "Loyalty"
+}</t>
+  </si>
+  <si>
+    <t>CreateNewEnrollment</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"User already enrolled for this program","debugMessage":"User already enrolled for this program"}</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Enrollment Name already Exist","debugMessage":"Enrollment Name already Exist"}</t>
+  </si>
+  <si>
+    <t>{
+  "interestId": 1,
+  "personId": 9593101
+}</t>
+  </si>
+  <si>
+    <t>CreateuserIntrest</t>
+  </si>
+  <si>
+    <t>IntrestControllerPostApi</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Record already exist","debugMessage":"Record already exist"}</t>
+  </si>
+  <si>
+    <t>{
+  "activityGroupId": "",
+  "activityId": "",
+  "eventId": 0,
+  "interestIds": [
+    1,2
+  ],
+  "personId": 9593101,
+  "taskId": ""
+}</t>
+  </si>
+  <si>
+    <t>CreateIntrestInBulk</t>
+  </si>
+  <si>
+    <t>UserfamilyControllerPostApi</t>
+  </si>
+  <si>
+    <t>saveUserChild</t>
+  </si>
+  <si>
+    <t>{
+  "activityGroupId": "",
+  "activityId": "",
+  "children": [
+    {
+      "birthDate": "2021-11-12",
+      "gender": "f"
+    }
+  ],
+  "eventId": 0,
+  "personId": 0,
+  "taskId": ""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "activityGroupId": "",
+  "activityId": "",
+  "eventId": 0,
+  "personId": 0,
+  "pets": [
+    {
+      "count": 1,
+      "petTypeId": 1
+    }
+  ],
+  "taskId": ""
+}</t>
+  </si>
+  <si>
+    <t>saveuserPets</t>
+  </si>
+  <si>
+    <t>{"userResponse":[{"personId":9593101,"personInfo":{"id":9593101,"alternateEmail":"Test@gmail.com","birthdate":"1994-07-04","blacklistStatusBitsType":null,"company":null,"created":"2021-10-06 04:58:03","displayName":"email","email":"lalithac@nu10.co","first":"Lalitha","gender":"f","isAgeVerified":"PASSED","isDeleted":0,"isExcludedFromExports":0,"isRegistrationInitiated":0,"isRegistryCompliant":null,"last":"Chandrasekhar","moderatorFlag":null,"tagline":null,"title":null,"headshot":"3504788","registeredDate":null,"modified":"2023-07-26 03:41:27","hasChildren":1},"addressInfo":{"id":2832678,"addressAccuracy":null,"addressLat":37.3008,"addressLong":-78.4133,"checksum":"454c0590e81ecf7189fe46e290577b040ed46bd9","city":"FARMVILLE","cityAccuracy":null,"cityLat":37.3008,"cityLong":-78.4133,"countryId":226,"created":"2023-05-26 06:02:32","isBlacklisted":0,"isGeocoded":1,"isValid":1,"modified":"2023-07-26 03:41:27","postalAdditional":null,"postalCode":"23901","stateOrProvince":"VA","street1":"77 0 DR","street2":null,"timezone":null,"countryName":"UNITED STATES","dma":"RICHMOND-PETERSBURG"},"accountInfo":null,"phoneNumber":"3643643644","countryCode":1,"eventParticipationBitsMap":null,"eventApplicationInfoMap":null}],"userErrorResponse":[]}</t>
+  </si>
+  <si>
+    <t>[{"id":2128,"sponsorId":587,"slug":"automationcbevent","name":"Automation CB Event","description":"&lt;p&gt;&lt;span style=\"color:#ff0000;\"&gt;Insert Product Overview&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"color:#000000;\"&gt;&lt;strong&gt;You must be 21 or older to host this event. &lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;strong&gt;&lt;strong&gt;This event is only open to residents of the contiguous US. &lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;\n&lt;p&gt;&lt;strong&gt;If you're selected as a Chatterbox, you'll get a great Chat Pack:&lt;/strong&gt;&lt;/p&gt;\n&lt;ul&gt;&lt;li&gt;Gift card&lt;/li&gt;\n&lt;li&gt;LIST 1&lt;/li&gt;\n&lt;li&gt;LIST 1&lt;/li&gt;\n&lt;li&gt;LIST 1&lt;/li&gt;\n&lt;/ul&gt;&lt;p&gt;Apply now and if selected, you'll receive a Chat Pack delivered right to your doorstep. Invite a friend over, who is at least 21 years old, to try  Automation Product  with you. You don't have to throw a party, but you'll want to celebrate when it arrives! After you try  Automation Product , chat about &lt;span style=\"color:#ff0000;\"&gt;[CUSTOMIZE PER BRAND]&lt;/span&gt;, share your opinions and post a review on the site. That's it!&lt;/p&gt;\n&lt;p&gt;Get the chatter started! Apply now.&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"color:#ff0000;\"&gt;Insert Legal Disclaimer&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"font-size:x-small;\"&gt;Insert Client Responsiblity messaging and copyright line here&lt;/span&gt;&lt;/p&gt;\n&lt;p class=\"headerul\"&gt;&lt;span style=\"font-size:x-small;\"&gt;You must be 21 or older to apply to be a Chatterbox for this campaign. State laws do not allow us to provide alcoholic beverages to Chatterbox participants. &lt;/span&gt;&lt;/p&gt;\n&lt;p class=\"headerul\"&gt;&lt;span style=\"font-size:x-small;\"&gt;Be sure to catch a safe ride home — no drinking and driving. Please Drink Responsibly.&lt;/span&gt;&lt;/p&gt;\n&lt;p&gt;&lt;span style=\"font-size:x-small;\"&gt;Please only post photos and videos of people 21 years of age or older and all persons must have given their permission. Photos must not defame or invade the publicity or privacy rights of any person, living or deceased, or otherwise infringe upon any person’s personal or proprietary rights. Photos must not: Describe individuals younger than 21 years of age; Contain material that violates or infringes another's rights, including, but not limited to, copyright, patent, trade name/trademark, and/or rights of privacy or publicity, slander, libel, or portrayal in a false light; Contain content depicting violence, nudity, profanity, illegal, or sexually explicit activity, or any content that is inappropriate, indecent, obscene, hateful, tortious, defamatory, slanderous or libelous; Contain content that promotes bigotry, racism, hatred or harm against any group or individual or promotes discrimination based on race, gender, religion, nationality, disability, sexual orientation or age; Contain material that is unlawful, in violation of, or contrary to, any laws or regulations; Contain any deleterious material, such as, but not limited to, virus, bugs, or tracking, or other embedded material or programs; and Contain any excessive consumption of wine or individuals who appear intoxicated.&lt;/span&gt;&lt;/p&gt;","community":{"id":587,"name":"Automation Sponsor"},"acceptingApplications":true,"applicationStarts":"2023-06-01 11:42:00","applicationEnds":"2024-04-30 23:59:00","heroPlayList":{"id":9962,"autoPlay":true,"mediaUrl":null,"assets":[{"assetId":null,"basename":"images.jpg","mimeType":"image/jpeg","type":"Image","url":null,"thumbnailUrl":null,"hlsPlaylistUrl":"https://stg-media.ripplestreet.com/basset/cd2c5bebea8f8b06021b16788dfbf2ee/original/images.jpg","mp4Url":null,"webmUrl":null,"description":null},{"assetId":null,"basename":"Automation-in-workplace-today-1.jpg","mimeType":"image/jpeg","type":"Image","url":null,"thumbnailUrl":null,"hlsPlaylistUrl":"https://stg-media.ripplestreet.com/basset/07be0f7d65e3e7213847779cccfb3c51/original/Automation-in-workplace-today-1.jpg","mp4Url":null,"webmUrl":null,"description":null},{"assetId":null,"basename":"Automation-in-workplace-today-1.jpg","mimeType":"image/jpeg","type":"Image","url":null,"thumbnailUrl":null,"hlsPlaylistUrl":"https://stg-media.ripplestreet.com/basset/07be0f7d65e3e7213847779cccfb3c51/original/Automation-in-workplace-today-1.jpg","mp4Url":null,"webmUrl":null,"description":null}],"mobileHero":false},"productResponses":[{"id":6880,"name":"Auto Product 1"}]}]</t>
+  </si>
+  <si>
+    <t>{
+  "endDate": null,
+  "eventId": 2128,
+  "eventName": null,
+  "featured": null,
+  "imageFilterRequest": null,
+  "isGlobalSearch": false,
+  "isReviewed": false,
+  "isSyndicated": null,
+  "milestones": null,
+  "moderated": null,
+  "needsAttention": null,
+  "page": 1,
+  "personId": null,
+  "productId": null,
+  "rating": null,
+  "size": 24,
+  "startDate": null,
+  "type": "ALL"
+}</t>
+  </si>
+  <si>
+    <t>{"totalCount":1,"responses":[{"created":"2023-06-15 01:48:32","modified":"2023-06-15 01:48:32","userId":9594287,"id":185679,"syndicated":false,"syndicationStatus":"","syndicationReason":null,"asset":null,"title":"Automating API's!!","body":"Testing review details in feeds api","feedbackReason":null,"moderated":null,"featured":false,"rating":5,"sponsorId":0,"productData":{"productName":"Auto Product 1","productId":6880},"eventData":{"eventId":2128,"eventName":"Automation CB Event","productName":null},"imageRecognition":{"recognitionData":null,"emotions":null},"adminReview":{"reviewStatus":"Pending","reviewedDate":null,"reviewedBy":null,"adminReviewCount":null,"reOpenedCount":null,"reviewerNotes":null},"activityData":{"activityGroupId":"cb50dabc-953c-4a0e-b45d-7083ea07f8b8","activityId":"acec2563-afdd-4d5a-9c49-22542d7157da","taskId":"7dc4a7a9-b350-49c4-bbcd-1bdc4b5499d3"},"person":{"id":9594287,"email":"lalithac+418@nu10.co","first":"Lalitha","last":"CS","displayName":null},"moderationReason":null}]}</t>
+  </si>
+  <si>
+    <t>ReviewControllerPostApi</t>
+  </si>
+  <si>
+    <t>getReviewListByFilter</t>
+  </si>
+  <si>
+    <t>{
+  "activityGroupId": "cb50dabc-953c-4a0e-b45d-7083ea07f8b8",
+  "activityId": "acec2563-afdd-4d5a-9c49-22542d7157da",
+  "taskId": "7dc4a7a9-b350-49c4-bbcd-1bdc4b5499d3",
+  "eventId": 2128,
+  "reviews": [
+    {
+      "assetId": null,
+      "body": "Test Review from API with good ratings",
+      "ipAddress": 0,
+      "productId": 6880,
+      "productName": "Auto Product 1",
+      "rating": 5,
+      "syndicationFingerPrint": "",
+      "title": "Test Review from API"
+    }
+  ],
+  "sponsorId": 587,
+  "userId": 9593101
+}</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"No enum constant com.ripplestreet.activityugcreview.model.Review.ProductNameEnum.Auto Product 1","debugMessage":"No enum constant com.ripplestreet.activityugcreview.model.Review.ProductNameEnum.Auto Product 1"}</t>
+  </si>
+  <si>
+    <t>{
+  "activityGroupId": "cb50dabc-953c-4a0e-b45d-7083ea07f8b8",
+  "activityId": "1e0f6c32-4c22-4175-9363-14a844d47e5f",
+  "eventId": 2128,
+  "externalReviews": [
+    {
+      "productId": 6880,
+      "productName": "EventProduct",
+      "url": "https://www.surveymonkey.com/",
+      "userName": "Lalitha"
+    }
+  ],
+  "sponsorId": 587,
+  "taskId": "f6fa3b80-62c6-44e4-af19-55c82812993d",
+  "userId": 9593101
+}</t>
+  </si>
+  <si>
+    <t>createExternalReview</t>
+  </si>
+  <si>
+    <t>{
+  "eventId": 2128,
+  "eventName": null,
+  "featured": null,
+  "fromDate": null,
+  "isGlobalSearch": false,
+  "isReviewed": false,
+  "milestones": null,
+  "moderated": null,
+  "needsAttention": null,
+  "page": 1,
+  "personId": null,
+  "productName": null,
+  "rating": null,
+  "size": 4,
+  "toDate": null,
+  "type": "IMAGE",
+  "imageFilterRequest": null
+}</t>
+  </si>
+  <si>
+    <t>UgcControllerPostApi</t>
+  </si>
+  <si>
+    <t>getUGCListByfilters</t>
+  </si>
+  <si>
+    <t>{"totalCount":1,"response":[{"created":"2023-06-15 01:47:43","modified":"2023-06-15 01:47:43","userId":9594287,"id":3297252,"asset":{"id":3504323,"basename":"939-Automation-in-workplace-today-1.jpg","mimeType":"image/png","description":"","hlsPlaylistUrl":"https://stg-media.ripplestreet.com/basset/35657e54c64ca8cae08b977bfdb94937/original/939-Automation-in-workplace-today-1.jpg","mp4Url":"null","webmUrl":"null","thumbNail":"null","assetType":"Image"},"sponsorId":587,"partyId":null,"viewed":0,"discussionCount":0,"likeCount":0,"isSelected":0,"assetRating":0,"moderated":false,"featured":false,"feedbackReason":null,"person":{"id":9594287,"email":"lalithac+418@nu10.co","first":"Lalitha","last":"CS","displayName":null},"eventData":{"eventId":2128,"eventName":"Automation CB Event","productName":"Auto Product 1"},"imageRecognition":{"recognitionData":[{"name":"productPresence","value":"false","confidence":null},{"name":"noOfPeople","value":"0","confidence":null},{"name":"minAge","value":null,"confidence":null},{"name":"maxAge","value":"","confidence":null},{"name":"maleCount","value":"0","confidence":null},{"name":"femaleCount","value":"0","confidence":null},{"name":"smileAverageIndex","value":null,"confidence":null},{"name":"kidsPresent","value":"false","confidence":null},{"name":"inShop","value":"false","confidence":null},{"name":"isDog","value":"false","confidence":null},{"name":"isCat","value":"false","confidence":null}],"emotions":[]},"adminReview":{"reviewStatus":"Pending","reviewedDate":null,"reviewedBy":null,"adminReviewCount":null,"reOpenedCount":0,"reviewerNotes":null},"activityData":{"activityGroupId":"cb50dabc-953c-4a0e-b45d-7083ea07f8b8","activityId":"661fe2a2-9a1e-4ef3-ae20-0be1061acc65","taskId":"b98fc925-b5b0-45ac-8a9d-a47b76de0f6e"},"moderationReason":null}]}</t>
+  </si>
+  <si>
+    <t>getAssestByIds</t>
+  </si>
+  <si>
+    <t>{
+  "assetId": [
+    3504323
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{"assetResponse":[{"created":"2023-06-15 01:47:43","modified":"2023-06-15 01:47:43","userId":9594287,"id":3504323,"basename":"939-Automation-in-workplace-today-1.jpg","checksum":"35657e54c64ca8cae08b977bfdb94937","mimeType":"image/png","size":1152991,"description":"","classifier":0,"conversionStatusBits":0,"isExternal":0,"assetType":"Image"}]}</t>
+  </si>
+  <si>
+    <t>imageRecognnition</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{
+  "activityGroupId": "cb50dabc-953c-4a0e-b45d-7083ea07f8b8",
+  "activityId": "661fe2a2-9a1e-4ef3-ae20-0be1061acc65",
+  "assetPayloads": [
+    {
+      "assetType": "Image",
+      "basename": "939-Automation-in-workplace-today-1.jpg",
+      "caption": "Testing Image from Post API",
+      "mimeType": "image/png",
+      "size": 0
+    }
+  ],
+  "eventId": 2128,
+  "isSocial": true,
+  "sponsorId": 587,
+  "taskId": "b98fc925-b5b0-45ac-8a9d-a47b76de0f6e",
+  "userId": 9593101
+}</t>
+  </si>
+  <si>
+    <t>uploadeCompletes</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Upload file has failed. please try after sometime.","debugMessage":"Upload file has failed. please try after sometime."}</t>
+  </si>
+  <si>
+    <t>{
+  "achievementName": "AutomationTest",
+  "startDateTime": "2022-05-20T11:55:40.497Z",
+  "endDateTime": "2022-05-20T11:55:40.497Z",
+  "description": "&lt;p&gt;You&amp;rsquo;re an A+ Advocate, a real Ripple&amp;nbsp;Street hero. We salute you&lt;/p&gt;\n",
+  "createdBy": null,
+  "modifiedBy": null,
+  "benefit": {
+    "id": "9875ec40-ffa3-41b0-a2a3-a80f7bdf8baf",
+    "name": "Advocate",
+    "url": "https://stg-media.ripplestreet.com/website/loyalty/Advocate.png",
+    "icon": "string",
+    "title": "Advocate",
+    "description": "&lt;p&gt;Advocate&lt;/p&gt;\n",
+    "type": "BADGE"
+  },
+  "rewards": {
+    "name": "10$",
+    "url": "https://stg-media.ripplestreet.com/website/loyalty/GoodCitizen.png",
+    "icon": null,
+    "title": "GoodCitizen",
+    "description": null
+  },
+  "triggers": [
+    {
+      "id": "85c9f7ec-5b85-45e2-b456-4b60a109ee52",
+      "name": "APPLICATION_DETAIL",
+      "title": "Some title",
+      "description": "&lt;p&gt;Earn your Socialite badge&lt;/p&gt;\n",
+      "rule": {
+        "group": [
+          {
+            "op": "OR",
+            "not": false,
+            "filter": [
+              {
+                "field": "selected_chatterbox",
+                "condition": "GREATER_THAN_OR_EQUALS",
+                "type": "INT",
+                "value": "1"
+              },
+              {
+                "field": "selected_houseparty",
+                "condition": "GREATER_THAN_OR_EQUALS",
+                "type": "INT",
+                "value": "1"
+              }
+            ],
+            "group": []
+          }
+        ],
+        "not": false,
+        "op": "AND"
+      }
+    },
+    {
+      "id": "c2ca4b02-1061-4d38-b516-c276ec9a341b",
+      "name": "ACTIVITY_COMPLETION",
+      "title": "Some title",
+      "description": "&lt;p&gt;Complete your first activity after&amp;nbsp;you receive your pack.&lt;/p&gt;\n\n&lt;p&gt;&amp;nbsp;&lt;/p&gt;\n",
+      "rule": {
+        "group": [
+          {
+            "op": "OR",
+            "not": false,
+            "filter": [
+              {
+                "field": "trial_phase",
+                "condition": "GREATER_THAN_OR_EQUALS",
+                "type": "INT",
+                "value": "1"
+              },
+              {
+                "field": "experience_phase",
+                "condition": "GREATER_THAN_OR_EQUALS",
+                "type": "INT",
+                "value": "1"
+              }
+            ],
+            "group": []
+          }
+        ],
+        "not": false,
+        "op": "AND"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>AchivementControllerPostApi</t>
+  </si>
+  <si>
+    <t>createAchivements</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"This achievement name  AutomationTest is already taken, please choose a different one","debugMessage":"This achievement name  AutomationTest is already taken, please choose a different one"}</t>
+  </si>
+  <si>
+    <t>{
+  "achievementProgramName": "Automation Program",
+  "startDateTime": "2022-05-20T12:06:27.829Z",
+  "endDateTime": "2022-05-20T12:06:27.829Z",
+  "description": "&lt;p&gt;Learn about how to make the most of your Ripple Street experience while earning badges along the way. Once you earn all Starter Pack badges, we&amp;rsquo;ll send you a tote-ly awesome gift. It&amp;rsquo;s a win-win-win&lt;/p&gt;\n",
+  "rewards": {
+    "name": "Test",
+    "url": null,
+    "icon": null,
+    "title": "Test",
+    "description": "&lt;p&gt;Test Reward Test&lt;/p&gt;\n"
+  },
+  "achievements": [
+    {
+  "id": "ab4fda36-2c65-11ee-996a-1b9a68b6fd08",
+  "achievementName": "AutomationTest",
+  "startDateTime": "2022-05-20T11:55:40.497Z",
+  "endDateTime": "2022-05-20T11:55:40.497Z",
+  "description": "&lt;p&gt;You&amp;rsquo;re an A+ Advocate, a real Ripple&amp;nbsp;Street hero. We salute you&lt;/p&gt;\n",
+  "createdBy": null,
+  "modifiedBy": null,
+  "benefit": {
+    "id": "9875ec40-ffa3-41b0-a2a3-a80f7bdf8baf",
+    "name": "Advocate",
+    "url": "https://stg-media.ripplestreet.com/website/loyalty/Advocate.png",
+    "icon": "string",
+    "title": "Advocate",
+    "description": "&lt;p&gt;Advocate&lt;/p&gt;\n",
+    "type": "BADGE"
+  },
+  "rewards": {
+    "name": "10$",
+    "url": "https://stg-media.ripplestreet.com/website/loyalty/GoodCitizen.png",
+    "icon": null,
+    "title": "GoodCitizen",
+    "description": null
+  },
+  "triggers": [
+    {
+      "id": "85c9f7ec-5b85-45e2-b456-4b60a109ee52",
+      "name": "APPLICATION_DETAIL",
+      "title": "Some title",
+      "description": "&lt;p&gt;Earn your Socialite badge&lt;/p&gt;\n",
+      "rule": {
+        "group": [
+          {
+            "op": "OR",
+            "not": false,
+            "filter": [
+              {
+                "field": "selected_chatterbox",
+                "condition": "GREATER_THAN_OR_EQUALS",
+                "type": "INT",
+                "value": "1"
+              },
+              {
+                "field": "selected_houseparty",
+                "condition": "GREATER_THAN_OR_EQUALS",
+                "type": "INT",
+                "value": "1"
+              }
+            ],
+            "group": []
+          }
+        ],
+        "not": false,
+        "op": "AND"
+      }
+    },
+    {
+      "id": "c2ca4b02-1061-4d38-b516-c276ec9a341b",
+      "name": "ACTIVITY_COMPLETION",
+      "title": "Some title",
+      "description": "&lt;p&gt;Complete your first activity after&amp;nbsp;you receive your pack.&lt;/p&gt;\n\n&lt;p&gt;&amp;nbsp;&lt;/p&gt;\n",
+      "rule": {
+        "group": [
+          {
+            "op": "OR",
+            "not": false,
+            "filter": [
+              {
+                "field": "trial_phase",
+                "condition": "GREATER_THAN_OR_EQUALS",
+                "type": "INT",
+                "value": "1"
+              },
+              {
+                "field": "experience_phase",
+                "condition": "GREATER_THAN_OR_EQUALS",
+                "type": "INT",
+                "value": "1"
+              }
+            ],
+            "group": []
+          }
+        ],
+        "not": false,
+        "op": "AND"
+      }
+    }
+  ]
+}
+  ],
+  "achievementIds": [
+    "5eebb510-d833-11ec-83fb-83b06d9ca8e4",
+    "89d37101-d833-11ec-83fb-b32bf9b126f7",
+    "ef800953-d833-11ec-83fb-937f381d2c6b",
+    "bc1d9642-d833-11ec-83fb-0bb3fa77fe78"
+  ],
+  "createdBy": null,
+  "modifiedBy": null,
+  "deleted": false,
+  "active": true
+}</t>
+  </si>
+  <si>
+    <t>AchivementProgrammControllerPostApi</t>
+  </si>
+  <si>
+    <t>createAchivementsProgramm</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"This program name  Automation Program is already taken, please choose a different one","debugMessage":"This program name  Automation Program is already taken, please choose a different one"}</t>
+  </si>
+  <si>
+    <t>{
+  "description": "Socialite",
+  "icon": null,
+  "title": "Socialite",
+  "type": "BADGE",
+  "userId": "9593101"
+}</t>
+  </si>
+  <si>
+    <t>BenefitController</t>
+  </si>
+  <si>
+    <t>CreateBenefit</t>
+  </si>
+  <si>
+    <t>{
+  "createdBy": 9593101,
+  "eventId": 2128,
+  "filters": {
+    "segmentId": "bgiggdggabjhb-964e9766-4665-44b9-bd3e-4583700a9903"
+  },
+  "type": "EXPORT_SEGMENT_DATA"
+}</t>
+  </si>
+  <si>
+    <t>SegmentExportControllerPostApi</t>
+  </si>
+  <si>
+    <t>ExportSegment</t>
+  </si>
+  <si>
+    <t>{
+  "collectionName": "testqa",
+  "segmentId": "bgiggdggabjhb-964e9766-4665-44b9-bd3e-4583700a9903"
+}</t>
+  </si>
+  <si>
+    <t>SegmentStoreControllerPostApi</t>
+  </si>
+  <si>
+    <t>pushSegmentDataFetcherRequest</t>
+  </si>
+  <si>
+    <t>{
+  "personIds": [
+    "9593101"
+  ]
+}</t>
+  </si>
+  <si>
+    <t>SegmentDataController</t>
+  </si>
+  <si>
+    <t>AddandRemoveUserForSegment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user ids saved </t>
+  </si>
+  <si>
+    <t>{
+  "failureCount": 0,
+  "fileName": "segment (23).csv",
+  "segmentId": "bgiggdggabjhb-964e9766-4665-44b9-bd3e-4583700a9903",
+  "totalCount": 1
+}</t>
+  </si>
+  <si>
+    <t>SegmentJobController</t>
+  </si>
+  <si>
+    <t>CreateaSegmnentJob</t>
+  </si>
+  <si>
+    <t>SegmentaionDefinitionControllerVersion2PostApi</t>
+  </si>
+  <si>
+    <t>createASegment</t>
+  </si>
+  <si>
+    <t>{
+  "dataSource": "LOADER",
+  "description": "Test Automation Segment",
+  "eventId": 2128,
+  "rules": null,
+  "segmentName": "2128 Automation Segment",
+  "status": "DRAFT"
+}</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Segment already exist with given segment name ","debugMessage":"Segment already exist with given segment name "}</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error- Missing Mandatory Data","subErrors":[{"object":"benefitRequest","field":"icon","messsage":"must not be null"},{"object":"benefitRequest","field":"icon","messsage":"must not be blank"}]}</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Authtoken can not be empty or null!!","debugMessage":"Authtoken can not be empty or null!!"}</t>
+  </si>
+  <si>
+    <t>bgjaiadbegajd-a476132e-7230-4f48-8cc3-04cad50186b3</t>
+  </si>
+  <si>
+    <t>bgjaiadbeiccb-6cb6053e-36f8-457c-a139-2efe795ab2c0</t>
+  </si>
+  <si>
+    <t>s3://audience-rs/dev/2128-Host-2023-07-31 07:32:29.csv</t>
+  </si>
+  <si>
+    <t>{"timestamp":1690803151705,"status":500,"error":"Internal Server Error","path":"/event/events/createEventSubscriptions"}</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error","subErrors":[{"object":"childernSaveActivityRequest","field":"activityId","messsage":"must not be blank"},{"object":"childernSaveActivityRequest","field":"taskId","messsage":"must not be blank"},{"object":"childernSaveActivityRequest","field":"activityGroupId","messsage":"must not be blank"}]}</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error","subErrors":[{"object":"petSaveActivityRequest","field":"taskId","messsage":"must not be blank"},{"object":"petSaveActivityRequest","field":"activityId","messsage":"must not be blank"},{"object":"petSaveActivityRequest","field":"activityGroupId","messsage":"must not be blank"}]}</t>
+  </si>
+  <si>
+    <t>{"externalReviews":[{"externalReviewId":411}]}</t>
+  </si>
+  <si>
+    <t>bgjaiadbjfdbf-e63910e3-6299-47be-a029-da11e2a93807</t>
+  </si>
+  <si>
+    <t>bgjaiadbjhacf-a4cdcf6a-ce38-4a28-b71e-36521b4cf540</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error","subErrors":[{"object":"userInterestInBulkRequest","field":"taskId","messsage":"must not be blank"},{"object":"userInterestInBulkRequest","field":"activityGroupId","messsage":"must not be blank"},{"object":"userInterestInBulkRequest","field":"activityId","messsage":"must not be blank"}]}</t>
+  </si>
+  <si>
+    <t>Expected_Output</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error- Missing Mandatory Data","subErrors":[{"object":"benefitRequest","field":"icon","messsage":"must not be blank"},{"object":"benefitRequest","field":"icon","messsage":"must not be null"}]}</t>
+  </si>
+  <si>
+    <t>{
+  "comment": "Test Automation reporting",
+  "feedType": "Discussion",
+  "id": 4988584,
+  "ipAddress": null,
+  "personId": 9593128
+}</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error","subErrors":[{"object":"petSaveActivityRequest","field":"activityId","messsage":"must not be blank"},{"object":"petSaveActivityRequest","field":"taskId","messsage":"must not be blank"},{"object":"petSaveActivityRequest","field":"activityGroupId","messsage":"must not be blank"}]}</t>
+  </si>
+  <si>
+    <t>{"externalReviews":[{"externalReviewId":425}]}</t>
+  </si>
+  <si>
+    <t>bgjbfifeeggig-6df2214c-bc8f-40e1-927e-deca9ddcc116</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error","subErrors":[{"object":"userInterestInBulkRequest","field":"activityId","messsage":"must not be blank"},{"object":"userInterestInBulkRequest","field":"activityGroupId","messsage":"must not be blank"},{"object":"userInterestInBulkRequest","field":"taskId","messsage":"must not be blank"}]}</t>
+  </si>
+  <si>
+    <t>bgjbfifgecijg-b905a213-e675-45da-a4da-b1dd589b6519</t>
+  </si>
+  <si>
+    <t>bgjbfifgeefca-6f21b977-f6f7-4cf6-a6eb-3d5e0033266b</t>
+  </si>
+  <si>
+    <t>bgjbfifhjgaej-0dc917bb-8766-4f7a-8633-e94ca3d4c63b</t>
+  </si>
+  <si>
+    <t>{"timestamp":1691585837859,"status":500,"error":"Internal Server Error","path":"/event/events/createEventSubscriptions"}</t>
+  </si>
+  <si>
+    <t>4451</t>
+  </si>
+  <si>
+    <t>AudienceControllerPostApi</t>
+  </si>
+  <si>
+    <t>getParticipantListForExport</t>
+  </si>
+  <si>
+    <t>{
+  "eventId": 2128,
+  "order": "DESC",
+  "page": 1,
+  "personId": 9593101,
+  "size": 10,
+  "type": "All"
+}</t>
+  </si>
+  <si>
+    <t>s3://audience-rs/dev/2128-Host-2023-08-11 02:06:55.csv</t>
+  </si>
+  <si>
+    <t>{"totalCount":1,"particpants":[{"participantId":20656075,"personId":9593101,"emailId":"lalithac@nu10.co","participants":["Host"],"reservationStatus":null,"created":"2023-06-13 02:38:32.0","modified":"2023-06-13 02:38:32.0","applicationId":11619012,"isApplicationCompleted":true,"isFinalist":true,"ageVerified":1,"appliedDate":null,"invitedDate":null,"expiryDate":null,"eventId":2128}]}</t>
+  </si>
+  <si>
+    <t>{
+  "endpoint": "/invoke/community-service/v1/participant/list",
+  "page": 1,
+  "size": 10,
+  "offset": null,
+  "filters": [
+    {
+      "field": "personId",
+      "label": "person Id",
+      "dataType": "INTEGER",
+      "type": "INPUT",
+      "options": [],
+      "required": false,
+      "value": 9593101,
+      "multiSelect": false
+    },
+    {
+      "field": "eventId",
+      "label": "event Id",
+      "dataType": "INTEGER",
+      "type": "INPUT",
+      "options": [],
+      "required": false,
+      "value": 2128,
+      "multiSelect": false
+    },
+    {
+      "field": "participantType",
+      "label": "Participant Type",
+      "dataType": "STRING",
+      "type": "DROPDOWN",
+      "options": [
+        "Host",
+        "Guest",
+        "Applicant",
+        "Chatterbox",
+        "Reject",
+        "Finalist",
+        "Reserved",
+        "Waitlisted",
+        "All"
+      ],
+      "required": true,
+      "value": "All",
+      "multiSelect": false
+    }
+  ],
+  "sort": [
+    {
+      "field": "participantId",
+      "order": "DESC"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>AudiencePromotionControllerPostApi</t>
+  </si>
+  <si>
+    <t>handelRejects</t>
+  </si>
+  <si>
+    <t>{
+  "pids": [
+    9593255
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{"successPids":[9593255],"failedPids":[]}</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error","subErrors":[{"object":"childernSaveActivityRequest","field":"activityGroupId","messsage":"must not be blank"},{"object":"childernSaveActivityRequest","field":"activityId","messsage":"must not be blank"},{"object":"childernSaveActivityRequest","field":"taskId","messsage":"must not be blank"}]}</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"Validation Error","subErrors":[{"object":"petSaveActivityRequest","field":"activityGroupId","messsage":"must not be blank"},{"object":"petSaveActivityRequest","field":"activityId","messsage":"must not be blank"},{"object":"petSaveActivityRequest","field":"taskId","messsage":"must not be blank"}]}</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>bgjbhegjgedfa-60c14b85-240b-4e1d-a40c-b69cad9575a1</t>
+  </si>
+  <si>
+    <t>bgjbhehabdhbe-f411bba1-56bf-4b9c-bfea-7c3b219c4b30</t>
+  </si>
+  <si>
+    <t>bgjbhehaddafi-0bd9b77a-5d46-473c-aec3-20dcfe910548</t>
+  </si>
+  <si>
+    <t>bgjbhehaeehci-c92fbe6a-890d-46f5-88f9-df57ac3bb671</t>
+  </si>
+  <si>
+    <t>bgjbhehaffhjd-4412dd14-34c9-4e48-be6b-ffff01eeafd2</t>
+  </si>
+  <si>
+    <t>bgjbhehaghege-0cdc036f-6811-44bd-9d3b-695a99796fae</t>
+  </si>
+  <si>
+    <t>bgjbhehahiedf-81d209d8-28ef-4aba-bd69-6c15f2781cac</t>
+  </si>
+  <si>
+    <t>bgjbhehbbabhd-2ebc99b1-d850-45d9-8acb-0eea53900cd0</t>
+  </si>
+  <si>
+    <t>{"status":"BAD_REQUEST","message":"No records to export","debugMessage":"No records to export"}</t>
+  </si>
+  <si>
+    <t>bgjcbhiccdeba-3002e9f8-ac18-43e8-b364-3d2859ffcfce</t>
+  </si>
+  <si>
+    <t>{"timestamp":1692274684653,"status":500,"error":"Internal Server Error","path":"/event/events/createEventSubscriptions"}</t>
+  </si>
+  <si>
+    <t>{"timestamp":1692274729655,"status":500,"error":"Internal Server Error","path":"/event/events/createEventSubscriptions"}</t>
   </si>
 </sst>
 </file>
@@ -268,13 +1161,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -324,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,6 +1235,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,16 +1558,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC576247-DC36-408C-BEE7-9FEE77FC23CB}">
   <dimension ref="A1:O466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="35.6328125"/>
     <col min="2" max="2" customWidth="true" width="44.36328125"/>
-    <col min="3" max="3" customWidth="true" width="31.6328125"/>
-    <col min="4" max="4" customWidth="true" width="24.6328125"/>
+    <col min="3" max="4" customWidth="true" width="24.6328125"/>
     <col min="5" max="5" customWidth="true" width="32.54296875"/>
   </cols>
   <sheetData>
@@ -674,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -695,17 +1599,19 @@
     </row>
     <row r="2" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -720,19 +1626,19 @@
     </row>
     <row r="3" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -747,19 +1653,19 @@
     </row>
     <row r="4" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -774,19 +1680,19 @@
     </row>
     <row r="5" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -801,17 +1707,19 @@
     </row>
     <row r="6" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4443</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -826,17 +1734,19 @@
     </row>
     <row r="7" spans="1:15" ht="348" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -851,16 +1761,16 @@
     </row>
     <row r="8" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -876,19 +1786,19 @@
     </row>
     <row r="9" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -903,16 +1813,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1">
-        <v>465</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -928,19 +1838,19 @@
     </row>
     <row r="11" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -955,19 +1865,19 @@
     </row>
     <row r="12" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -980,12 +1890,22 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -997,12 +1917,22 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1014,12 +1944,22 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1031,12 +1971,22 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1048,12 +1998,22 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1065,12 +2025,22 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1082,12 +2052,22 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1099,12 +2079,22 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1116,12 +2106,22 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="21" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1133,12 +2133,22 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+    <row r="22" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1150,12 +2160,22 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1167,12 +2187,22 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+    <row r="24" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1184,12 +2214,22 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1201,12 +2241,22 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+    <row r="26" spans="1:15" ht="348" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1218,12 +2268,22 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="1:15" ht="290" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1235,12 +2295,22 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+    <row r="28" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1252,12 +2322,22 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+    <row r="29" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1270,10 +2350,18 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1286,12 +2374,22 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+    <row r="31" spans="1:15" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1303,12 +2401,22 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+    <row r="32" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1320,12 +2428,22 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+    <row r="33" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1337,12 +2455,22 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+    <row r="34" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1354,12 +2482,22 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+    <row r="35" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1371,12 +2509,22 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+    <row r="36" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1388,12 +2536,22 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+    <row r="37" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1405,12 +2563,22 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+    <row r="38" spans="1:15" ht="116" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1422,12 +2590,22 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+    <row r="39" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1439,12 +2617,22 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+    <row r="40" spans="1:15" ht="232" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1456,12 +2644,22 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+    <row r="41" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1473,12 +2671,22 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+    <row r="42" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
